--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_108.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_108.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,538 +488,554 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1120923913043478</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09999999999999999</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>[['F#', 'B', 'B/7'], ['B', 'B/3', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(42.62, 45.06)]</t>
+          <t>[['A', 'D', 'D/b7'], ['D', 'D/b7', 'G/3']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(55.002834, 59.124376)]</t>
+          <t>[('0:00:04.940612', '0:00:06.577619'), ('0:02:33.617981', '0:02:41.988775')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:31.439841', '0:00:35.781972'), ('0:00:32.879478', '0:00:37.291269')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(10.1, 15.42)]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(105.28, 122.26)]</t>
+          <t>[('0:01:24', '0:01:30.840000'), ('0:00:13.740000', '0:00:22.560000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:08.260000', '0:00:12.960000'), ('0:00:00.360000', '0:00:05.060000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07307692307692308</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(18.32, 25.82)]</t>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36), (1.54, 6.68)]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (13.42, 19.5)]</t>
+          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:14.879000', '0:01:27.795000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07595948827292111</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D', 'D/b7', 'G/3']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E/3', 'E/4', 'A']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(22.484897, 26.15365)]</t>
+          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(65.559465, 69.714376)]</t>
+          <t>[('0:01:17.680000', '0:01:26.540000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
+          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1136044880785414</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.56, 4.26)]</t>
+          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['F/2', 'C', 'F'], ['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3)]</t>
+          <t>[('0:00:57.758000', '0:01:04.527000'), ('0:00:05.121000', '0:00:12.601000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:11.140000', '0:02:13.900000'), ('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.465952', '0:00:06.886543')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[('0:00:47.580000', '0:00:50.040000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.56, 32.44)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(32.7, 45.64)]</t>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(121.74, 123.78)]</t>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(4.76, 118.78)]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(5.0, 114.06)]</t>
+          <t>[('0:00:09.700000', '0:00:15.020000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:45.280000', '0:02:02.260000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -1023,182 +1044,144 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.22, 21.94)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.38, 21.84)]</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:10.980000', '0:01:27.200000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(26.2, 33.96), (80.2, 86.86)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(99.6, 111.62), (46.52, 48.94)]</t>
+          <t>[('0:01:01.140000', '0:01:23.520000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(37.54, 42.72)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(31.6, 33.8)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
